--- a/usermanagementtemplatement.xlsx
+++ b/usermanagementtemplatement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\malachi.egbugha\Desktop\projects\hmsbackend\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3872F32-0AAF-414A-9875-630646A6367A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C5C0C16-F63A-4775-968A-EEDCDB450FD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{902DD762-F460-4A9A-9A55-54ECDE76D5B5}"/>
   </bookViews>
@@ -167,7 +167,7 @@
     <t>dockot</t>
   </si>
   <si>
-    <t>mmmegbugha@gmail.com</t>
+    <t>mmmeegbugha@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{704BA128-82D7-4C04-A633-9C3DB146E54A}">
   <dimension ref="A1:Y2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
     <col min="10" max="10" width="7" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" customWidth="1"/>
-    <col min="15" max="15" width="23.5703125" customWidth="1"/>
+    <col min="15" max="15" width="32.85546875" customWidth="1"/>
     <col min="18" max="19" width="18" customWidth="1"/>
     <col min="20" max="20" width="21.140625" customWidth="1"/>
     <col min="21" max="21" width="14" customWidth="1"/>
